--- a/config_multi.xls/game_room_num.xlsx
+++ b/config_multi.xls/game_room_num.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\blackjack\gamedata\config_multi.xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0013610F-A23F-4246-8982-A5E995DD60FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49122695-A414-4AC4-8B75-521F0AE60E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -193,15 +193,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0;0;0;0</t>
+    <t>20;20;20;20</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>20;0;0;0;0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3;0;0;0</t>
+    <t>20;20;20;20;20</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2244,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K114" sqref="K114"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -5197,7 +5193,7 @@
         <v>7000</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5223,7 +5219,7 @@
         <v>7000</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5249,7 +5245,7 @@
         <v>7000</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/config_multi.xls/game_room_num.xlsx
+++ b/config_multi.xls/game_room_num.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\blackjack\gamedata\config_multi.xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49122695-A414-4AC4-8B75-521F0AE60E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1209EF5-AC94-4C36-8168-2195F6F72F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -2238,10 +2238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -5248,6 +5248,84 @@
         <v>13</v>
       </c>
     </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>109</v>
+      </c>
+      <c r="B116">
+        <v>185</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116">
+        <v>4000</v>
+      </c>
+      <c r="F116">
+        <v>5000</v>
+      </c>
+      <c r="G116">
+        <v>7000</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>110</v>
+      </c>
+      <c r="B117">
+        <v>185</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117">
+        <v>3000</v>
+      </c>
+      <c r="F117">
+        <v>4000</v>
+      </c>
+      <c r="G117">
+        <v>7000</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>111</v>
+      </c>
+      <c r="B118">
+        <v>185</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118">
+        <v>4000</v>
+      </c>
+      <c r="F118">
+        <v>6000</v>
+      </c>
+      <c r="G118">
+        <v>7000</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
